--- a/public/templates/work-template.xlsx
+++ b/public/templates/work-template.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6766F66B-0C48-4CC9-A517-220FA1F7091C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$50</definedName>
+  </definedNames>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Наряд-заказ</t>
   </si>
@@ -133,46 +156,21 @@
     <t>Клей, гр</t>
   </si>
   <si>
-    <t>Расчет норм. часов</t>
-  </si>
-  <si>
-    <t>Подготовка полноценная</t>
-  </si>
-  <si>
-    <t>м.кв. * 0,8 н.ч. 1.м.кв. = н.ч.</t>
-  </si>
-  <si>
-    <t>Подготовка фрезеровки</t>
-  </si>
-  <si>
-    <t> м.кв. *0,5 н.ч. 1.м.кв. = н.ч.</t>
-  </si>
-  <si>
-    <t>Общее</t>
+    <t>Расчет норм. часов
+Подготовка полноценная –  м.кв. * 0,8 н.ч. 1.м.кв. = н.ч.
+Подготовка фрезеровки –  м.кв. *0,5 н.ч. 1.м.кв. = н.ч.
+Общее: н.ч.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="8"/>
@@ -180,15 +178,27 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -198,16 +208,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color theme="3"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color theme="3"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color theme="3"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color theme="3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -218,432 +228,164 @@
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color theme="3"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color theme="3"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color theme="3"/>
       </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff525252"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF525252"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -845,7 +587,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -863,7 +605,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +634,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +659,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +684,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +709,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +734,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +759,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +784,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +809,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +834,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,9 +847,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1124,7 +872,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1142,7 +890,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +915,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +940,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1217,7 +965,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +990,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1015,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1040,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1065,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,7 +1090,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,7 +1115,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,9 +1128,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1396,7 +1150,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1414,7 +1168,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1197,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1468,7 +1222,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1493,7 +1247,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1518,7 +1272,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1543,7 +1297,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +1322,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1593,7 +1347,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1618,7 +1372,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1643,7 +1397,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1656,896 +1410,782 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28571" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.00781" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44531" style="1" customWidth="1"/>
-    <col min="3" max="4" width="6.86719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.15625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="6.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7344" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28906" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.15625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44531" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.28906" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" ht="12.95" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" t="s" s="8">
+      <c r="B2" s="9"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" ht="12.95" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="G2" s="9"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s" s="8">
+      <c r="B3" s="9"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" ht="12.95" customHeight="1">
-      <c r="A4" t="s" s="5">
+      <c r="G3" s="9"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" t="s" s="8">
+      <c r="B4" s="9"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" ht="27" customHeight="1">
-      <c r="A5" t="s" s="5">
+      <c r="G4" s="9"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" ht="12.95" customHeight="1">
-      <c r="A6" t="s" s="5">
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" ht="26.1" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.1" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s" s="11">
+      <c r="G7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s" s="11">
+      <c r="H7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s" s="11">
+      <c r="I7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J7" t="s" s="12">
+      <c r="J7" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="12.95" customHeight="1">
-      <c r="A8" s="13">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" ht="12.95" customHeight="1">
-      <c r="A9" s="13">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" ht="12.95" customHeight="1">
-      <c r="A10" s="13">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" ht="12.95" customHeight="1">
-      <c r="A11" s="13">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" ht="12.95" customHeight="1">
-      <c r="A12" s="13">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" ht="12.95" customHeight="1">
-      <c r="A13" s="13">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" ht="12.95" customHeight="1">
-      <c r="A14" s="13">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" ht="12.95" customHeight="1">
-      <c r="A15" s="13">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" ht="12.95" customHeight="1">
-      <c r="A16" s="13">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" ht="12.95" customHeight="1">
-      <c r="A17" s="13">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" ht="12.95" customHeight="1">
-      <c r="A18" s="13">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A18" s="5">
         <v>11</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" ht="12.95" customHeight="1">
-      <c r="A19" s="13">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A19" s="5">
         <v>12</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" ht="12.95" customHeight="1">
-      <c r="A20" s="13">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A20" s="5">
         <v>13</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" ht="17.1" customHeight="1">
-      <c r="A21" s="13">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A21" s="5">
         <v>14</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" ht="17.1" customHeight="1">
-      <c r="A22" s="13">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A22" s="5">
         <v>15</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" ht="17.1" customHeight="1">
-      <c r="A23" s="13">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A23" s="5">
         <v>16</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" ht="17.1" customHeight="1">
-      <c r="A24" s="13">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A24" s="5">
         <v>17</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" ht="17.1" customHeight="1">
-      <c r="A25" s="13">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A25" s="5">
         <v>18</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" ht="17.1" customHeight="1">
-      <c r="A26" s="13">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A26" s="5">
         <v>19</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" ht="17.1" customHeight="1">
-      <c r="A27" s="13">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A27" s="5">
         <v>20</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" ht="17.1" customHeight="1">
-      <c r="A28" s="13">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" s="5">
         <v>21</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" ht="17.1" customHeight="1">
-      <c r="A29" s="13">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A29" s="5">
         <v>22</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" ht="17.1" customHeight="1">
-      <c r="A30" s="13">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A30" s="5">
         <v>23</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" ht="17.1" customHeight="1">
-      <c r="A31" s="13">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A31" s="5">
         <v>24</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" ht="17.1" customHeight="1">
-      <c r="A32" t="s" s="15">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A32" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" t="s" s="8">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" t="s" s="8">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" ht="17.1" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" t="s" s="18">
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" ht="17.1" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" ht="17.1" customHeight="1">
-      <c r="A35" t="s" s="2">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" ht="4.5" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" t="s" s="23">
+      <c r="C35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" t="s" s="23">
+      <c r="F35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" t="s" s="23">
+      <c r="H35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" ht="17.1" customHeight="1">
-      <c r="A36" t="s" s="5">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" ht="17.1" customHeight="1">
-      <c r="A37" t="s" s="5">
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" ht="17.1" customHeight="1">
-      <c r="A38" t="s" s="5">
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" ht="17.1" customHeight="1">
-      <c r="A39" t="s" s="5">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" ht="17.1" customHeight="1">
-      <c r="A40" t="s" s="5">
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" ht="17.1" customHeight="1">
-      <c r="A41" t="s" s="24">
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" ht="17.1" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-    </row>
-    <row r="43" ht="17.1" customHeight="1">
-      <c r="A43" t="s" s="2">
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="3" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" t="s" s="23">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" t="s" s="23">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" ht="17.1" customHeight="1">
-      <c r="A44" t="s" s="5">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A44" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" ht="17.1" customHeight="1">
-      <c r="A45" t="s" s="5">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" ht="17.1" customHeight="1">
-      <c r="A46" t="s" s="5">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A46" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" ht="17.1" customHeight="1">
-      <c r="A47" t="s" s="5">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A47" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" ht="17.1" customHeight="1">
-      <c r="A48" t="s" s="5">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="9"/>
-    </row>
-    <row r="49" ht="17.1" customHeight="1">
-      <c r="A49" t="s" s="24">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A49" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" ht="17.1" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="51" ht="17.1" customHeight="1">
-      <c r="A51" t="s" s="27">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A50" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="29"/>
-    </row>
-    <row r="52" ht="17.1" customHeight="1">
-      <c r="A52" t="s" s="30">
-        <v>41</v>
-      </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" t="s" s="32">
-        <v>42</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="33"/>
-    </row>
-    <row r="53" ht="17.1" customHeight="1">
-      <c r="A53" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" t="s" s="32">
-        <v>44</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="33"/>
-    </row>
-    <row r="54" ht="17.1" customHeight="1">
-      <c r="A54" t="s" s="34">
-        <v>45</v>
-      </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="37"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
+  <mergeCells count="75">
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="A5:B5"/>
@@ -2562,9 +2202,68 @@
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:J49"/>
   </mergeCells>
-  <pageMargins left="0.79" right="0.79" top="0.79" bottom="0.79" header="0.196806" footer="0.196806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/templates/work-template.xlsx
+++ b/public/templates/work-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6766F66B-0C48-4CC9-A517-220FA1F7091C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0DA122-7557-4329-960E-F7D3D17F62AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,31 +249,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,14 +264,22 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -299,6 +289,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1431,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="A34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1441,17 +1450,17 @@
     <col min="2" max="2" width="6.44140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="6.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
@@ -1465,727 +1474,867 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="22">
+        <f>$B8*$C8*$D8*0.000001</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="22">
+        <f t="shared" ref="J9:J31" si="0">$B9*$C9*$D9*0.000001</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>11</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>12</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>14</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>15</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>16</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>17</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>18</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>19</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
         <v>21</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>22</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>23</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>24</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="23">
+        <f>SUM(J8:J31)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11" t="s">
+      <c r="G32" s="4"/>
+      <c r="H32" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" ht="4.5" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="2" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" ht="3" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
     </row>
     <row r="45" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="A5:B5"/>
@@ -2202,68 +2351,10 @@
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:J49"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="105" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
